--- a/dados/Feira.xlsx
+++ b/dados/Feira.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liliana Ramalho\PycharmProjects\Rotas Brisa\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE862EC-5037-42D5-AD7D-D173D07F51D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948B74F7-EA94-438F-944E-82A8C539FB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="405" windowWidth="21600" windowHeight="11385" xr2:uid="{C7B9A9F7-23EE-4672-AD67-8D6D05A3DE7C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C7B9A9F7-23EE-4672-AD67-8D6D05A3DE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
     <sheet name="Nos Sublanços" sheetId="3" r:id="rId2"/>
     <sheet name="Ocorrencias" sheetId="4" r:id="rId3"/>
     <sheet name="Distancias" sheetId="5" r:id="rId4"/>
+    <sheet name="Probabilidades Totais" sheetId="6" r:id="rId5"/>
+    <sheet name="Probabilidades Corrigidas" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="59">
   <si>
     <t>Auto-Estrada</t>
   </si>
@@ -179,12 +181,48 @@
   <si>
     <t>Portagem</t>
   </si>
+  <si>
+    <t>Probabilidade incidência</t>
+  </si>
+  <si>
+    <t>Viaduto Duarte Pacheco - Cruz das Oliveiras</t>
+  </si>
+  <si>
+    <t>Cruz das Oliveiras - Monsanto</t>
+  </si>
+  <si>
+    <t>Monsanto - Miraflores (A5/IC17)</t>
+  </si>
+  <si>
+    <t>Miraflores (A5/IC17) - Linda-a-Velha</t>
+  </si>
+  <si>
+    <t>Linda-a-Velha - Estádio Nacional</t>
+  </si>
+  <si>
+    <t>Estádio Nacional - Oeiras</t>
+  </si>
+  <si>
+    <t>Oeiras - Carcavelos</t>
+  </si>
+  <si>
+    <t>Carcavelos - Estoril</t>
+  </si>
+  <si>
+    <t>Estoril - Alcabideche (A5/A16)</t>
+  </si>
+  <si>
+    <t>Alcabideche (A5/A16) - Alvide</t>
+  </si>
+  <si>
+    <t>Alvide - Cascais</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,16 +230,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -209,15 +271,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{B46108BC-C8CE-4237-9C76-11CD7B536FB0}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,16 +716,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FA447-55AE-4EA1-917F-8F1665E29179}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -941,7 +1126,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1329,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA70C23D-D854-4663-9D8F-FEAD0E3E1750}">
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,28 +1442,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5674,6 +5859,5877 @@
       </c>
       <c r="H170">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E84987-0E8A-4845-A37F-3B21EECD245D}">
+  <dimension ref="A1:C265"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="11">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13">
+        <v>7.6712328767123292E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
+        <v>8.2191780821917804E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13">
+        <v>7.3972602739726029E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="11">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13">
+        <v>7.3972602739726029E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="11">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13">
+        <v>8.4931506849315053E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11">
+        <v>14</v>
+      </c>
+      <c r="C16" s="13">
+        <v>5.4794520547945202E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="11">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7.9452054794520541E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="11">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13">
+        <v>7.6712328767123292E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="11">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.11232876712328767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="11">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.12328767123287671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="11">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.11232876712328767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13">
+        <v>8.2191780821917804E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="11">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="11">
+        <v>22</v>
+      </c>
+      <c r="C24" s="13">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="11">
+        <v>3</v>
+      </c>
+      <c r="C29" s="18">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="11">
+        <v>4</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="11">
+        <v>5</v>
+      </c>
+      <c r="C31" s="18">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="11">
+        <v>6</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="11">
+        <v>7</v>
+      </c>
+      <c r="C33" s="18">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="11">
+        <v>8</v>
+      </c>
+      <c r="C34" s="18">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="11">
+        <v>9</v>
+      </c>
+      <c r="C35" s="18">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="11">
+        <v>10</v>
+      </c>
+      <c r="C36" s="18">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="11">
+        <v>11</v>
+      </c>
+      <c r="C37" s="18">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="11">
+        <v>12</v>
+      </c>
+      <c r="C38" s="18">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="11">
+        <v>13</v>
+      </c>
+      <c r="C39" s="18">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="11">
+        <v>14</v>
+      </c>
+      <c r="C40" s="18">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="11">
+        <v>15</v>
+      </c>
+      <c r="C41" s="18">
+        <v>5.2054794520547946E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="11">
+        <v>16</v>
+      </c>
+      <c r="C42" s="18">
+        <v>7.6712328767123292E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="11">
+        <v>17</v>
+      </c>
+      <c r="C43" s="18">
+        <v>9.5890410958904104E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="11">
+        <v>18</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0.10136986301369863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="11">
+        <v>19</v>
+      </c>
+      <c r="C45" s="18">
+        <v>0.10136986301369863</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="11">
+        <v>20</v>
+      </c>
+      <c r="C46" s="18">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="11">
+        <v>21</v>
+      </c>
+      <c r="C47" s="18">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="11">
+        <v>22</v>
+      </c>
+      <c r="C48" s="18">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="4">
+        <v>23</v>
+      </c>
+      <c r="C49" s="19">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="17">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
+      <c r="C51" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2</v>
+      </c>
+      <c r="C52" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="11">
+        <v>3</v>
+      </c>
+      <c r="C53" s="18">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="11">
+        <v>4</v>
+      </c>
+      <c r="C54" s="18">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="11">
+        <v>5</v>
+      </c>
+      <c r="C55" s="18">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="11">
+        <v>6</v>
+      </c>
+      <c r="C56" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="11">
+        <v>7</v>
+      </c>
+      <c r="C57" s="18">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="11">
+        <v>8</v>
+      </c>
+      <c r="C58" s="18">
+        <v>2.7397260273972601E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="11">
+        <v>9</v>
+      </c>
+      <c r="C59" s="18">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="11">
+        <v>10</v>
+      </c>
+      <c r="C60" s="18">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="11">
+        <v>11</v>
+      </c>
+      <c r="C61" s="18">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="11">
+        <v>12</v>
+      </c>
+      <c r="C62" s="18">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="11">
+        <v>13</v>
+      </c>
+      <c r="C63" s="18">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="11">
+        <v>14</v>
+      </c>
+      <c r="C64" s="18">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="11">
+        <v>15</v>
+      </c>
+      <c r="C65" s="18">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="11">
+        <v>16</v>
+      </c>
+      <c r="C66" s="18">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="11">
+        <v>17</v>
+      </c>
+      <c r="C67" s="18">
+        <v>2.7397260273972601E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="11">
+        <v>18</v>
+      </c>
+      <c r="C68" s="18">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="11">
+        <v>19</v>
+      </c>
+      <c r="C69" s="18">
+        <v>3.8356164383561646E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="11">
+        <v>20</v>
+      </c>
+      <c r="C70" s="18">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="11">
+        <v>21</v>
+      </c>
+      <c r="C71" s="18">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="11">
+        <v>22</v>
+      </c>
+      <c r="C72" s="18">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="4">
+        <v>23</v>
+      </c>
+      <c r="C73" s="19">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="11">
+        <v>1</v>
+      </c>
+      <c r="C75" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2</v>
+      </c>
+      <c r="C76" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="11">
+        <v>3</v>
+      </c>
+      <c r="C77" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="11">
+        <v>4</v>
+      </c>
+      <c r="C78" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="11">
+        <v>5</v>
+      </c>
+      <c r="C79" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="11">
+        <v>6</v>
+      </c>
+      <c r="C80" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="11">
+        <v>7</v>
+      </c>
+      <c r="C81" s="20">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="11">
+        <v>8</v>
+      </c>
+      <c r="C82" s="20">
+        <v>5.2054794520547946E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="11">
+        <v>9</v>
+      </c>
+      <c r="C83" s="20">
+        <v>6.0273972602739728E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="11">
+        <v>10</v>
+      </c>
+      <c r="C84" s="20">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="11">
+        <v>11</v>
+      </c>
+      <c r="C85" s="20">
+        <v>4.1095890410958902E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="11">
+        <v>12</v>
+      </c>
+      <c r="C86" s="20">
+        <v>3.8356164383561646E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="11">
+        <v>13</v>
+      </c>
+      <c r="C87" s="20">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="11">
+        <v>14</v>
+      </c>
+      <c r="C88" s="20">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="11">
+        <v>15</v>
+      </c>
+      <c r="C89" s="20">
+        <v>5.2054794520547946E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="11">
+        <v>16</v>
+      </c>
+      <c r="C90" s="20">
+        <v>6.575342465753424E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="11">
+        <v>17</v>
+      </c>
+      <c r="C91" s="20">
+        <v>6.575342465753424E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="11">
+        <v>18</v>
+      </c>
+      <c r="C92" s="20">
+        <v>0.10410958904109589</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" s="11">
+        <v>19</v>
+      </c>
+      <c r="C93" s="20">
+        <v>7.1232876712328766E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="11">
+        <v>20</v>
+      </c>
+      <c r="C94" s="20">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" s="11">
+        <v>21</v>
+      </c>
+      <c r="C95" s="20">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" s="11">
+        <v>22</v>
+      </c>
+      <c r="C96" s="20">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="4">
+        <v>23</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="11">
+        <v>1</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="11">
+        <v>2</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" s="11">
+        <v>3</v>
+      </c>
+      <c r="C101" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="11">
+        <v>4</v>
+      </c>
+      <c r="C102" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="11">
+        <v>5</v>
+      </c>
+      <c r="C103" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="11">
+        <v>6</v>
+      </c>
+      <c r="C104" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="11">
+        <v>7</v>
+      </c>
+      <c r="C105" s="20">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="11">
+        <v>8</v>
+      </c>
+      <c r="C106" s="20">
+        <v>9.5890410958904104E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" s="11">
+        <v>9</v>
+      </c>
+      <c r="C107" s="20">
+        <v>0.10684931506849316</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="11">
+        <v>10</v>
+      </c>
+      <c r="C108" s="20">
+        <v>9.3150684931506855E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" s="11">
+        <v>11</v>
+      </c>
+      <c r="C109" s="20">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="11">
+        <v>12</v>
+      </c>
+      <c r="C110" s="20">
+        <v>5.4794520547945202E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="11">
+        <v>13</v>
+      </c>
+      <c r="C111" s="20">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="11">
+        <v>14</v>
+      </c>
+      <c r="C112" s="20">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="11">
+        <v>15</v>
+      </c>
+      <c r="C113" s="20">
+        <v>6.3013698630136991E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="11">
+        <v>16</v>
+      </c>
+      <c r="C114" s="20">
+        <v>7.3972602739726029E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="11">
+        <v>17</v>
+      </c>
+      <c r="C115" s="20">
+        <v>9.8630136986301367E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="11">
+        <v>18</v>
+      </c>
+      <c r="C116" s="20">
+        <v>0.12328767123287671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="11">
+        <v>19</v>
+      </c>
+      <c r="C117" s="20">
+        <v>6.575342465753424E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="11">
+        <v>20</v>
+      </c>
+      <c r="C118" s="20">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" s="11">
+        <v>21</v>
+      </c>
+      <c r="C119" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" s="11">
+        <v>22</v>
+      </c>
+      <c r="C120" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" s="4">
+        <v>23</v>
+      </c>
+      <c r="C121" s="20">
+        <v>2.7397260273972601E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122" s="21">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" s="11">
+        <v>1</v>
+      </c>
+      <c r="C123" s="22">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B124" s="11">
+        <v>2</v>
+      </c>
+      <c r="C124" s="22">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" s="11">
+        <v>3</v>
+      </c>
+      <c r="C125" s="22">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" s="11">
+        <v>4</v>
+      </c>
+      <c r="C126" s="22">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B127" s="11">
+        <v>5</v>
+      </c>
+      <c r="C127" s="22">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B128" s="11">
+        <v>6</v>
+      </c>
+      <c r="C128" s="22">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129" s="11">
+        <v>7</v>
+      </c>
+      <c r="C129" s="22">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B130" s="11">
+        <v>8</v>
+      </c>
+      <c r="C130" s="22">
+        <v>0.10684931506849316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131" s="11">
+        <v>9</v>
+      </c>
+      <c r="C131" s="22">
+        <v>0.11232876712328767</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B132" s="11">
+        <v>10</v>
+      </c>
+      <c r="C132" s="22">
+        <v>6.3013698630136991E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B133" s="11">
+        <v>11</v>
+      </c>
+      <c r="C133" s="22">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B134" s="11">
+        <v>12</v>
+      </c>
+      <c r="C134" s="22">
+        <v>4.1095890410958902E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B135" s="11">
+        <v>13</v>
+      </c>
+      <c r="C135" s="22">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136" s="11">
+        <v>14</v>
+      </c>
+      <c r="C136" s="22">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" s="11">
+        <v>15</v>
+      </c>
+      <c r="C137" s="22">
+        <v>6.3013698630136991E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" s="11">
+        <v>16</v>
+      </c>
+      <c r="C138" s="22">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="11">
+        <v>17</v>
+      </c>
+      <c r="C139" s="22">
+        <v>6.3013698630136991E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" s="11">
+        <v>18</v>
+      </c>
+      <c r="C140" s="22">
+        <v>5.4794520547945202E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" s="11">
+        <v>19</v>
+      </c>
+      <c r="C141" s="22">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" s="11">
+        <v>20</v>
+      </c>
+      <c r="C142" s="22">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" s="11">
+        <v>21</v>
+      </c>
+      <c r="C143" s="22">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" s="11">
+        <v>22</v>
+      </c>
+      <c r="C144" s="22">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="4">
+        <v>23</v>
+      </c>
+      <c r="C145" s="23">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+      <c r="C146" s="21">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" s="11">
+        <v>1</v>
+      </c>
+      <c r="C147" s="22">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B148" s="11">
+        <v>2</v>
+      </c>
+      <c r="C148" s="22">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B149" s="11">
+        <v>3</v>
+      </c>
+      <c r="C149" s="22">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" s="11">
+        <v>4</v>
+      </c>
+      <c r="C150" s="22">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" s="11">
+        <v>5</v>
+      </c>
+      <c r="C151" s="22">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" s="11">
+        <v>6</v>
+      </c>
+      <c r="C152" s="22">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B153" s="11">
+        <v>7</v>
+      </c>
+      <c r="C153" s="22">
+        <v>5.2054794520547946E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B154" s="11">
+        <v>8</v>
+      </c>
+      <c r="C154" s="22">
+        <v>6.0273972602739728E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B155" s="11">
+        <v>9</v>
+      </c>
+      <c r="C155" s="22">
+        <v>7.9452054794520555E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B156" s="11">
+        <v>10</v>
+      </c>
+      <c r="C156" s="22">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B157" s="11">
+        <v>11</v>
+      </c>
+      <c r="C157" s="22">
+        <v>7.6712328767123292E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B158" s="11">
+        <v>12</v>
+      </c>
+      <c r="C158" s="22">
+        <v>6.8493150684931503E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B159" s="11">
+        <v>13</v>
+      </c>
+      <c r="C159" s="22">
+        <v>6.575342465753424E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B160" s="11">
+        <v>14</v>
+      </c>
+      <c r="C160" s="22">
+        <v>7.9452054794520555E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B161" s="11">
+        <v>15</v>
+      </c>
+      <c r="C161" s="22">
+        <v>7.1232876712328766E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" s="11">
+        <v>16</v>
+      </c>
+      <c r="C162" s="22">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B163" s="11">
+        <v>17</v>
+      </c>
+      <c r="C163" s="22">
+        <v>8.4931506849315067E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B164" s="11">
+        <v>18</v>
+      </c>
+      <c r="C164" s="22">
+        <v>0.11780821917808219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165" s="11">
+        <v>19</v>
+      </c>
+      <c r="C165" s="22">
+        <v>7.3972602739726029E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B166" s="11">
+        <v>20</v>
+      </c>
+      <c r="C166" s="22">
+        <v>5.4794520547945202E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B167" s="11">
+        <v>21</v>
+      </c>
+      <c r="C167" s="22">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B168" s="11">
+        <v>22</v>
+      </c>
+      <c r="C168" s="22">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B169" s="4">
+        <v>23</v>
+      </c>
+      <c r="C169" s="23">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+      <c r="C170" s="21">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" s="11">
+        <v>1</v>
+      </c>
+      <c r="C171" s="22">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B172" s="11">
+        <v>2</v>
+      </c>
+      <c r="C172" s="22">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B173" s="11">
+        <v>3</v>
+      </c>
+      <c r="C173" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B174" s="11">
+        <v>4</v>
+      </c>
+      <c r="C174" s="22">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B175" s="11">
+        <v>5</v>
+      </c>
+      <c r="C175" s="22">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B176" s="11">
+        <v>6</v>
+      </c>
+      <c r="C176" s="22">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B177" s="11">
+        <v>7</v>
+      </c>
+      <c r="C177" s="22">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B178" s="11">
+        <v>8</v>
+      </c>
+      <c r="C178" s="22">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B179" s="11">
+        <v>9</v>
+      </c>
+      <c r="C179" s="22">
+        <v>2.7397260273972601E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B180" s="11">
+        <v>10</v>
+      </c>
+      <c r="C180" s="22">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181" s="11">
+        <v>11</v>
+      </c>
+      <c r="C181" s="22">
+        <v>6.0273972602739728E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" s="11">
+        <v>12</v>
+      </c>
+      <c r="C182" s="22">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B183" s="11">
+        <v>13</v>
+      </c>
+      <c r="C183" s="22">
+        <v>5.2054794520547946E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" s="11">
+        <v>14</v>
+      </c>
+      <c r="C184" s="22">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B185" s="11">
+        <v>15</v>
+      </c>
+      <c r="C185" s="22">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B186" s="11">
+        <v>16</v>
+      </c>
+      <c r="C186" s="22">
+        <v>7.3972602739726029E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B187" s="11">
+        <v>17</v>
+      </c>
+      <c r="C187" s="22">
+        <v>6.0273972602739728E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B188" s="11">
+        <v>18</v>
+      </c>
+      <c r="C188" s="22">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189" s="11">
+        <v>19</v>
+      </c>
+      <c r="C189" s="22">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B190" s="11">
+        <v>20</v>
+      </c>
+      <c r="C190" s="22">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B191" s="11">
+        <v>21</v>
+      </c>
+      <c r="C191" s="22">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B192" s="11">
+        <v>22</v>
+      </c>
+      <c r="C192" s="22">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B193" s="4">
+        <v>23</v>
+      </c>
+      <c r="C193" s="23">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B194" s="3">
+        <v>0</v>
+      </c>
+      <c r="C194" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B195" s="11">
+        <v>1</v>
+      </c>
+      <c r="C195" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B196" s="11">
+        <v>2</v>
+      </c>
+      <c r="C196" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B197" s="11">
+        <v>3</v>
+      </c>
+      <c r="C197" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198" s="11">
+        <v>4</v>
+      </c>
+      <c r="C198" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" s="11">
+        <v>5</v>
+      </c>
+      <c r="C199" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B200" s="11">
+        <v>6</v>
+      </c>
+      <c r="C200" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B201" s="11">
+        <v>7</v>
+      </c>
+      <c r="C201" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B202" s="11">
+        <v>8</v>
+      </c>
+      <c r="C202" s="20">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B203" s="11">
+        <v>9</v>
+      </c>
+      <c r="C203" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B204" s="11">
+        <v>10</v>
+      </c>
+      <c r="C204" s="20">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B205" s="11">
+        <v>11</v>
+      </c>
+      <c r="C205" s="20">
+        <v>4.1095890410958902E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B206" s="11">
+        <v>12</v>
+      </c>
+      <c r="C206" s="20">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B207" s="11">
+        <v>13</v>
+      </c>
+      <c r="C207" s="20">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B208" s="11">
+        <v>14</v>
+      </c>
+      <c r="C208" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B209" s="11">
+        <v>15</v>
+      </c>
+      <c r="C209" s="20">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B210" s="11">
+        <v>16</v>
+      </c>
+      <c r="C210" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B211" s="11">
+        <v>17</v>
+      </c>
+      <c r="C211" s="20">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B212" s="11">
+        <v>18</v>
+      </c>
+      <c r="C212" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B213" s="11">
+        <v>19</v>
+      </c>
+      <c r="C213" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B214" s="11">
+        <v>20</v>
+      </c>
+      <c r="C214" s="20">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B215" s="11">
+        <v>21</v>
+      </c>
+      <c r="C215" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B216" s="11">
+        <v>22</v>
+      </c>
+      <c r="C216" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B217" s="4">
+        <v>23</v>
+      </c>
+      <c r="C217" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+      <c r="C218" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B219" s="11">
+        <v>1</v>
+      </c>
+      <c r="C219" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B220" s="11">
+        <v>2</v>
+      </c>
+      <c r="C220" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B221" s="11">
+        <v>3</v>
+      </c>
+      <c r="C221" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B222" s="11">
+        <v>4</v>
+      </c>
+      <c r="C222" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B223" s="11">
+        <v>5</v>
+      </c>
+      <c r="C223" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B224" s="11">
+        <v>6</v>
+      </c>
+      <c r="C224" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B225" s="11">
+        <v>7</v>
+      </c>
+      <c r="C225" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B226" s="11">
+        <v>8</v>
+      </c>
+      <c r="C226" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B227" s="11">
+        <v>9</v>
+      </c>
+      <c r="C227" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B228" s="11">
+        <v>10</v>
+      </c>
+      <c r="C228" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B229" s="11">
+        <v>11</v>
+      </c>
+      <c r="C229" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B230" s="11">
+        <v>12</v>
+      </c>
+      <c r="C230" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B231" s="11">
+        <v>13</v>
+      </c>
+      <c r="C231" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B232" s="11">
+        <v>14</v>
+      </c>
+      <c r="C232" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B233" s="11">
+        <v>15</v>
+      </c>
+      <c r="C233" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B234" s="11">
+        <v>16</v>
+      </c>
+      <c r="C234" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B235" s="11">
+        <v>17</v>
+      </c>
+      <c r="C235" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B236" s="11">
+        <v>18</v>
+      </c>
+      <c r="C236" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B237" s="11">
+        <v>19</v>
+      </c>
+      <c r="C237" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B238" s="11">
+        <v>20</v>
+      </c>
+      <c r="C238" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B239" s="11">
+        <v>21</v>
+      </c>
+      <c r="C239" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B240" s="11">
+        <v>22</v>
+      </c>
+      <c r="C240" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B241" s="4">
+        <v>23</v>
+      </c>
+      <c r="C241" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B242" s="3">
+        <v>0</v>
+      </c>
+      <c r="C242" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B243" s="11">
+        <v>1</v>
+      </c>
+      <c r="C243" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B244" s="11">
+        <v>2</v>
+      </c>
+      <c r="C244" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B245" s="11">
+        <v>3</v>
+      </c>
+      <c r="C245" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B246" s="11">
+        <v>4</v>
+      </c>
+      <c r="C246" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B247" s="11">
+        <v>5</v>
+      </c>
+      <c r="C247" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B248" s="11">
+        <v>6</v>
+      </c>
+      <c r="C248" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B249" s="11">
+        <v>7</v>
+      </c>
+      <c r="C249" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B250" s="11">
+        <v>8</v>
+      </c>
+      <c r="C250" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B251" s="11">
+        <v>9</v>
+      </c>
+      <c r="C251" s="20">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B252" s="11">
+        <v>10</v>
+      </c>
+      <c r="C252" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B253" s="11">
+        <v>11</v>
+      </c>
+      <c r="C253" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B254" s="11">
+        <v>12</v>
+      </c>
+      <c r="C254" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B255" s="11">
+        <v>13</v>
+      </c>
+      <c r="C255" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B256" s="11">
+        <v>14</v>
+      </c>
+      <c r="C256" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B257" s="11">
+        <v>15</v>
+      </c>
+      <c r="C257" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B258" s="11">
+        <v>16</v>
+      </c>
+      <c r="C258" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B259" s="11">
+        <v>17</v>
+      </c>
+      <c r="C259" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B260" s="11">
+        <v>18</v>
+      </c>
+      <c r="C260" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B261" s="11">
+        <v>19</v>
+      </c>
+      <c r="C261" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B262" s="11">
+        <v>20</v>
+      </c>
+      <c r="C262" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B263" s="11">
+        <v>21</v>
+      </c>
+      <c r="C263" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B264" s="11">
+        <v>22</v>
+      </c>
+      <c r="C264" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B265" s="4">
+        <v>23</v>
+      </c>
+      <c r="C265" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA59B391-55BA-4511-94DE-41FAFA01A0FB}">
+  <dimension ref="A1:C265"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="11">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13">
+        <v>7.6712328767123292E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
+        <v>8.2191780821917804E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13">
+        <v>7.3972602739726029E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="11">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13">
+        <v>7.3972602739726029E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="11">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13">
+        <v>8.4931506849315053E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11">
+        <v>14</v>
+      </c>
+      <c r="C16" s="13">
+        <v>5.4794520547945202E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="11">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13">
+        <v>7.9452054794520541E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="11">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13">
+        <v>7.6712328767123292E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="11">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.11232876712328767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="11">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.12328767123287671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="11">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.11232876712328767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13">
+        <v>8.2191780821917804E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="11">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="11">
+        <v>22</v>
+      </c>
+      <c r="C24" s="13">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="11">
+        <v>3</v>
+      </c>
+      <c r="C29" s="18">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="11">
+        <v>4</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="11">
+        <v>5</v>
+      </c>
+      <c r="C31" s="18">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="11">
+        <v>6</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="11">
+        <v>7</v>
+      </c>
+      <c r="C33" s="18">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="11">
+        <v>8</v>
+      </c>
+      <c r="C34" s="18">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="11">
+        <v>9</v>
+      </c>
+      <c r="C35" s="18">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="11">
+        <v>10</v>
+      </c>
+      <c r="C36" s="18">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="11">
+        <v>11</v>
+      </c>
+      <c r="C37" s="18">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="11">
+        <v>12</v>
+      </c>
+      <c r="C38" s="18">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="11">
+        <v>13</v>
+      </c>
+      <c r="C39" s="18">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="11">
+        <v>14</v>
+      </c>
+      <c r="C40" s="18">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="11">
+        <v>15</v>
+      </c>
+      <c r="C41" s="18">
+        <v>5.2054794520547946E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="11">
+        <v>16</v>
+      </c>
+      <c r="C42" s="18">
+        <v>7.6712328767123292E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="11">
+        <v>17</v>
+      </c>
+      <c r="C43" s="18">
+        <v>9.5890410958904104E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="11">
+        <v>18</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0.10136986301369863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="11">
+        <v>19</v>
+      </c>
+      <c r="C45" s="18">
+        <v>0.10136986301369863</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="11">
+        <v>20</v>
+      </c>
+      <c r="C46" s="18">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="11">
+        <v>21</v>
+      </c>
+      <c r="C47" s="18">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="11">
+        <v>22</v>
+      </c>
+      <c r="C48" s="18">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="4">
+        <v>23</v>
+      </c>
+      <c r="C49" s="19">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="17">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
+      <c r="C51" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2</v>
+      </c>
+      <c r="C52" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="11">
+        <v>3</v>
+      </c>
+      <c r="C53" s="18">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="11">
+        <v>4</v>
+      </c>
+      <c r="C54" s="18">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="11">
+        <v>5</v>
+      </c>
+      <c r="C55" s="18">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="11">
+        <v>6</v>
+      </c>
+      <c r="C56" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="11">
+        <v>7</v>
+      </c>
+      <c r="C57" s="18">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="11">
+        <v>8</v>
+      </c>
+      <c r="C58" s="18">
+        <v>2.7397260273972601E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="11">
+        <v>9</v>
+      </c>
+      <c r="C59" s="18">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="11">
+        <v>10</v>
+      </c>
+      <c r="C60" s="18">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="11">
+        <v>11</v>
+      </c>
+      <c r="C61" s="18">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="11">
+        <v>12</v>
+      </c>
+      <c r="C62" s="18">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="11">
+        <v>13</v>
+      </c>
+      <c r="C63" s="18">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="11">
+        <v>14</v>
+      </c>
+      <c r="C64" s="18">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="11">
+        <v>15</v>
+      </c>
+      <c r="C65" s="18">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="11">
+        <v>16</v>
+      </c>
+      <c r="C66" s="18">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="11">
+        <v>17</v>
+      </c>
+      <c r="C67" s="18">
+        <v>2.7397260273972601E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="11">
+        <v>18</v>
+      </c>
+      <c r="C68" s="18">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="11">
+        <v>19</v>
+      </c>
+      <c r="C69" s="18">
+        <v>3.8356164383561646E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="11">
+        <v>20</v>
+      </c>
+      <c r="C70" s="18">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="11">
+        <v>21</v>
+      </c>
+      <c r="C71" s="18">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="11">
+        <v>22</v>
+      </c>
+      <c r="C72" s="18">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="4">
+        <v>23</v>
+      </c>
+      <c r="C73" s="19">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="11">
+        <v>1</v>
+      </c>
+      <c r="C75" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2</v>
+      </c>
+      <c r="C76" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="11">
+        <v>3</v>
+      </c>
+      <c r="C77" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="11">
+        <v>4</v>
+      </c>
+      <c r="C78" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="11">
+        <v>5</v>
+      </c>
+      <c r="C79" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="11">
+        <v>6</v>
+      </c>
+      <c r="C80" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="11">
+        <v>7</v>
+      </c>
+      <c r="C81" s="20">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="11">
+        <v>8</v>
+      </c>
+      <c r="C82" s="20">
+        <v>5.2054794520547946E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="11">
+        <v>9</v>
+      </c>
+      <c r="C83" s="20">
+        <v>6.0273972602739728E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="11">
+        <v>10</v>
+      </c>
+      <c r="C84" s="20">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="11">
+        <v>11</v>
+      </c>
+      <c r="C85" s="20">
+        <v>4.1095890410958902E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="11">
+        <v>12</v>
+      </c>
+      <c r="C86" s="20">
+        <v>3.8356164383561646E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="11">
+        <v>13</v>
+      </c>
+      <c r="C87" s="20">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="11">
+        <v>14</v>
+      </c>
+      <c r="C88" s="20">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="11">
+        <v>15</v>
+      </c>
+      <c r="C89" s="20">
+        <v>5.2054794520547946E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="11">
+        <v>16</v>
+      </c>
+      <c r="C90" s="20">
+        <v>6.575342465753424E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="11">
+        <v>17</v>
+      </c>
+      <c r="C91" s="20">
+        <v>6.575342465753424E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="11">
+        <v>18</v>
+      </c>
+      <c r="C92" s="20">
+        <v>0.10410958904109589</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" s="11">
+        <v>19</v>
+      </c>
+      <c r="C93" s="20">
+        <v>7.1232876712328766E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="11">
+        <v>20</v>
+      </c>
+      <c r="C94" s="20">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95" s="11">
+        <v>21</v>
+      </c>
+      <c r="C95" s="20">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" s="11">
+        <v>22</v>
+      </c>
+      <c r="C96" s="20">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="4">
+        <v>23</v>
+      </c>
+      <c r="C97" s="20">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="11">
+        <v>1</v>
+      </c>
+      <c r="C99" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="11">
+        <v>2</v>
+      </c>
+      <c r="C100" s="20">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" s="11">
+        <v>3</v>
+      </c>
+      <c r="C101" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="11">
+        <v>4</v>
+      </c>
+      <c r="C102" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="11">
+        <v>5</v>
+      </c>
+      <c r="C103" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="11">
+        <v>6</v>
+      </c>
+      <c r="C104" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="11">
+        <v>7</v>
+      </c>
+      <c r="C105" s="20">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="11">
+        <v>8</v>
+      </c>
+      <c r="C106" s="20">
+        <v>9.5890410958904104E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" s="11">
+        <v>9</v>
+      </c>
+      <c r="C107" s="20">
+        <v>0.10684931506849316</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="11">
+        <v>10</v>
+      </c>
+      <c r="C108" s="20">
+        <v>9.3150684931506855E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" s="11">
+        <v>11</v>
+      </c>
+      <c r="C109" s="20">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="11">
+        <v>12</v>
+      </c>
+      <c r="C110" s="20">
+        <v>5.4794520547945202E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="11">
+        <v>13</v>
+      </c>
+      <c r="C111" s="20">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="11">
+        <v>14</v>
+      </c>
+      <c r="C112" s="20">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="11">
+        <v>15</v>
+      </c>
+      <c r="C113" s="20">
+        <v>6.3013698630136991E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="11">
+        <v>16</v>
+      </c>
+      <c r="C114" s="20">
+        <v>7.3972602739726029E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="11">
+        <v>17</v>
+      </c>
+      <c r="C115" s="20">
+        <v>9.8630136986301367E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="11">
+        <v>18</v>
+      </c>
+      <c r="C116" s="20">
+        <v>0.12328767123287671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="11">
+        <v>19</v>
+      </c>
+      <c r="C117" s="20">
+        <v>6.575342465753424E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="11">
+        <v>20</v>
+      </c>
+      <c r="C118" s="20">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" s="11">
+        <v>21</v>
+      </c>
+      <c r="C119" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" s="11">
+        <v>22</v>
+      </c>
+      <c r="C120" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" s="4">
+        <v>23</v>
+      </c>
+      <c r="C121" s="20">
+        <v>2.7397260273972601E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
+      <c r="C122" s="21">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" s="11">
+        <v>1</v>
+      </c>
+      <c r="C123" s="22">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B124" s="11">
+        <v>2</v>
+      </c>
+      <c r="C124" s="22">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" s="11">
+        <v>3</v>
+      </c>
+      <c r="C125" s="22">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" s="11">
+        <v>4</v>
+      </c>
+      <c r="C126" s="22">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B127" s="11">
+        <v>5</v>
+      </c>
+      <c r="C127" s="22">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B128" s="11">
+        <v>6</v>
+      </c>
+      <c r="C128" s="22">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129" s="11">
+        <v>7</v>
+      </c>
+      <c r="C129" s="22">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B130" s="11">
+        <v>8</v>
+      </c>
+      <c r="C130" s="22">
+        <v>0.10684931506849316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131" s="11">
+        <v>9</v>
+      </c>
+      <c r="C131" s="22">
+        <v>0.11232876712328767</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B132" s="11">
+        <v>10</v>
+      </c>
+      <c r="C132" s="22">
+        <v>6.3013698630136991E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B133" s="11">
+        <v>11</v>
+      </c>
+      <c r="C133" s="22">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B134" s="11">
+        <v>12</v>
+      </c>
+      <c r="C134" s="22">
+        <v>4.1095890410958902E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B135" s="11">
+        <v>13</v>
+      </c>
+      <c r="C135" s="22">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B136" s="11">
+        <v>14</v>
+      </c>
+      <c r="C136" s="22">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B137" s="11">
+        <v>15</v>
+      </c>
+      <c r="C137" s="22">
+        <v>6.3013698630136991E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" s="11">
+        <v>16</v>
+      </c>
+      <c r="C138" s="22">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="11">
+        <v>17</v>
+      </c>
+      <c r="C139" s="22">
+        <v>6.3013698630136991E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" s="11">
+        <v>18</v>
+      </c>
+      <c r="C140" s="22">
+        <v>5.4794520547945202E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" s="11">
+        <v>19</v>
+      </c>
+      <c r="C141" s="22">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" s="11">
+        <v>20</v>
+      </c>
+      <c r="C142" s="22">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" s="11">
+        <v>21</v>
+      </c>
+      <c r="C143" s="22">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" s="11">
+        <v>22</v>
+      </c>
+      <c r="C144" s="22">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="4">
+        <v>23</v>
+      </c>
+      <c r="C145" s="23">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B146" s="3">
+        <v>0</v>
+      </c>
+      <c r="C146" s="21">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" s="11">
+        <v>1</v>
+      </c>
+      <c r="C147" s="22">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B148" s="11">
+        <v>2</v>
+      </c>
+      <c r="C148" s="22">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B149" s="11">
+        <v>3</v>
+      </c>
+      <c r="C149" s="22">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" s="11">
+        <v>4</v>
+      </c>
+      <c r="C150" s="22">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" s="11">
+        <v>5</v>
+      </c>
+      <c r="C151" s="22">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" s="11">
+        <v>6</v>
+      </c>
+      <c r="C152" s="22">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B153" s="11">
+        <v>7</v>
+      </c>
+      <c r="C153" s="22">
+        <v>5.2054794520547946E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B154" s="11">
+        <v>8</v>
+      </c>
+      <c r="C154" s="22">
+        <v>6.0273972602739728E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B155" s="11">
+        <v>9</v>
+      </c>
+      <c r="C155" s="22">
+        <v>7.9452054794520555E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B156" s="11">
+        <v>10</v>
+      </c>
+      <c r="C156" s="22">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B157" s="11">
+        <v>11</v>
+      </c>
+      <c r="C157" s="22">
+        <v>7.6712328767123292E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B158" s="11">
+        <v>12</v>
+      </c>
+      <c r="C158" s="22">
+        <v>6.8493150684931503E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B159" s="11">
+        <v>13</v>
+      </c>
+      <c r="C159" s="22">
+        <v>6.575342465753424E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B160" s="11">
+        <v>14</v>
+      </c>
+      <c r="C160" s="22">
+        <v>7.9452054794520555E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B161" s="11">
+        <v>15</v>
+      </c>
+      <c r="C161" s="22">
+        <v>7.1232876712328766E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" s="11">
+        <v>16</v>
+      </c>
+      <c r="C162" s="22">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B163" s="11">
+        <v>17</v>
+      </c>
+      <c r="C163" s="22">
+        <v>8.4931506849315067E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B164" s="11">
+        <v>18</v>
+      </c>
+      <c r="C164" s="22">
+        <v>0.11780821917808219</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165" s="11">
+        <v>19</v>
+      </c>
+      <c r="C165" s="22">
+        <v>7.3972602739726029E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B166" s="11">
+        <v>20</v>
+      </c>
+      <c r="C166" s="22">
+        <v>5.4794520547945202E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B167" s="11">
+        <v>21</v>
+      </c>
+      <c r="C167" s="22">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B168" s="11">
+        <v>22</v>
+      </c>
+      <c r="C168" s="22">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B169" s="4">
+        <v>23</v>
+      </c>
+      <c r="C169" s="23">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+      <c r="C170" s="21">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" s="11">
+        <v>1</v>
+      </c>
+      <c r="C171" s="22">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B172" s="11">
+        <v>2</v>
+      </c>
+      <c r="C172" s="22">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B173" s="11">
+        <v>3</v>
+      </c>
+      <c r="C173" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B174" s="11">
+        <v>4</v>
+      </c>
+      <c r="C174" s="22">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B175" s="11">
+        <v>5</v>
+      </c>
+      <c r="C175" s="22">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B176" s="11">
+        <v>6</v>
+      </c>
+      <c r="C176" s="22">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B177" s="11">
+        <v>7</v>
+      </c>
+      <c r="C177" s="22">
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B178" s="11">
+        <v>8</v>
+      </c>
+      <c r="C178" s="22">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B179" s="11">
+        <v>9</v>
+      </c>
+      <c r="C179" s="22">
+        <v>2.7397260273972601E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B180" s="11">
+        <v>10</v>
+      </c>
+      <c r="C180" s="22">
+        <v>5.7534246575342465E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B181" s="11">
+        <v>11</v>
+      </c>
+      <c r="C181" s="22">
+        <v>6.0273972602739728E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" s="11">
+        <v>12</v>
+      </c>
+      <c r="C182" s="22">
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B183" s="11">
+        <v>13</v>
+      </c>
+      <c r="C183" s="22">
+        <v>5.2054794520547946E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" s="11">
+        <v>14</v>
+      </c>
+      <c r="C184" s="22">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B185" s="11">
+        <v>15</v>
+      </c>
+      <c r="C185" s="22">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B186" s="11">
+        <v>16</v>
+      </c>
+      <c r="C186" s="22">
+        <v>7.3972602739726029E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B187" s="11">
+        <v>17</v>
+      </c>
+      <c r="C187" s="22">
+        <v>6.0273972602739728E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B188" s="11">
+        <v>18</v>
+      </c>
+      <c r="C188" s="22">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189" s="11">
+        <v>19</v>
+      </c>
+      <c r="C189" s="22">
+        <v>4.6575342465753428E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B190" s="11">
+        <v>20</v>
+      </c>
+      <c r="C190" s="22">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B191" s="11">
+        <v>21</v>
+      </c>
+      <c r="C191" s="22">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B192" s="11">
+        <v>22</v>
+      </c>
+      <c r="C192" s="22">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B193" s="4">
+        <v>23</v>
+      </c>
+      <c r="C193" s="23">
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B194" s="3">
+        <v>0</v>
+      </c>
+      <c r="C194" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B195" s="11">
+        <v>1</v>
+      </c>
+      <c r="C195" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B196" s="11">
+        <v>2</v>
+      </c>
+      <c r="C196" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B197" s="11">
+        <v>3</v>
+      </c>
+      <c r="C197" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198" s="11">
+        <v>4</v>
+      </c>
+      <c r="C198" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" s="11">
+        <v>5</v>
+      </c>
+      <c r="C199" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B200" s="11">
+        <v>6</v>
+      </c>
+      <c r="C200" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B201" s="11">
+        <v>7</v>
+      </c>
+      <c r="C201" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B202" s="11">
+        <v>8</v>
+      </c>
+      <c r="C202" s="20">
+        <v>3.0136986301369864E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B203" s="11">
+        <v>9</v>
+      </c>
+      <c r="C203" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B204" s="11">
+        <v>10</v>
+      </c>
+      <c r="C204" s="20">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B205" s="11">
+        <v>11</v>
+      </c>
+      <c r="C205" s="20">
+        <v>4.1095890410958902E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B206" s="11">
+        <v>12</v>
+      </c>
+      <c r="C206" s="20">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B207" s="11">
+        <v>13</v>
+      </c>
+      <c r="C207" s="20">
+        <v>2.1917808219178082E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B208" s="11">
+        <v>14</v>
+      </c>
+      <c r="C208" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B209" s="11">
+        <v>15</v>
+      </c>
+      <c r="C209" s="20">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B210" s="11">
+        <v>16</v>
+      </c>
+      <c r="C210" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B211" s="11">
+        <v>17</v>
+      </c>
+      <c r="C211" s="20">
+        <v>4.3835616438356165E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B212" s="11">
+        <v>18</v>
+      </c>
+      <c r="C212" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B213" s="11">
+        <v>19</v>
+      </c>
+      <c r="C213" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B214" s="11">
+        <v>20</v>
+      </c>
+      <c r="C214" s="20">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B215" s="11">
+        <v>21</v>
+      </c>
+      <c r="C215" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B216" s="11">
+        <v>22</v>
+      </c>
+      <c r="C216" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B217" s="4">
+        <v>23</v>
+      </c>
+      <c r="C217" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+      <c r="C218" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B219" s="11">
+        <v>1</v>
+      </c>
+      <c r="C219" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B220" s="11">
+        <v>2</v>
+      </c>
+      <c r="C220" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B221" s="11">
+        <v>3</v>
+      </c>
+      <c r="C221" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B222" s="11">
+        <v>4</v>
+      </c>
+      <c r="C222" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B223" s="11">
+        <v>5</v>
+      </c>
+      <c r="C223" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B224" s="11">
+        <v>6</v>
+      </c>
+      <c r="C224" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B225" s="11">
+        <v>7</v>
+      </c>
+      <c r="C225" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B226" s="11">
+        <v>8</v>
+      </c>
+      <c r="C226" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B227" s="11">
+        <v>9</v>
+      </c>
+      <c r="C227" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B228" s="11">
+        <v>10</v>
+      </c>
+      <c r="C228" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B229" s="11">
+        <v>11</v>
+      </c>
+      <c r="C229" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B230" s="11">
+        <v>12</v>
+      </c>
+      <c r="C230" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B231" s="11">
+        <v>13</v>
+      </c>
+      <c r="C231" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B232" s="11">
+        <v>14</v>
+      </c>
+      <c r="C232" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B233" s="11">
+        <v>15</v>
+      </c>
+      <c r="C233" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B234" s="11">
+        <v>16</v>
+      </c>
+      <c r="C234" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B235" s="11">
+        <v>17</v>
+      </c>
+      <c r="C235" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B236" s="11">
+        <v>18</v>
+      </c>
+      <c r="C236" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B237" s="11">
+        <v>19</v>
+      </c>
+      <c r="C237" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B238" s="11">
+        <v>20</v>
+      </c>
+      <c r="C238" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B239" s="11">
+        <v>21</v>
+      </c>
+      <c r="C239" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B240" s="11">
+        <v>22</v>
+      </c>
+      <c r="C240" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B241" s="4">
+        <v>23</v>
+      </c>
+      <c r="C241" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B242" s="3">
+        <v>0</v>
+      </c>
+      <c r="C242" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B243" s="11">
+        <v>1</v>
+      </c>
+      <c r="C243" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B244" s="11">
+        <v>2</v>
+      </c>
+      <c r="C244" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B245" s="11">
+        <v>3</v>
+      </c>
+      <c r="C245" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B246" s="11">
+        <v>4</v>
+      </c>
+      <c r="C246" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B247" s="11">
+        <v>5</v>
+      </c>
+      <c r="C247" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B248" s="11">
+        <v>6</v>
+      </c>
+      <c r="C248" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B249" s="11">
+        <v>7</v>
+      </c>
+      <c r="C249" s="20">
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B250" s="11">
+        <v>8</v>
+      </c>
+      <c r="C250" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B251" s="11">
+        <v>9</v>
+      </c>
+      <c r="C251" s="20">
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B252" s="11">
+        <v>10</v>
+      </c>
+      <c r="C252" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B253" s="11">
+        <v>11</v>
+      </c>
+      <c r="C253" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B254" s="11">
+        <v>12</v>
+      </c>
+      <c r="C254" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B255" s="11">
+        <v>13</v>
+      </c>
+      <c r="C255" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B256" s="11">
+        <v>14</v>
+      </c>
+      <c r="C256" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B257" s="11">
+        <v>15</v>
+      </c>
+      <c r="C257" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B258" s="11">
+        <v>16</v>
+      </c>
+      <c r="C258" s="20">
+        <v>1.3698630136986301E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B259" s="11">
+        <v>17</v>
+      </c>
+      <c r="C259" s="20">
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B260" s="11">
+        <v>18</v>
+      </c>
+      <c r="C260" s="20">
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B261" s="11">
+        <v>19</v>
+      </c>
+      <c r="C261" s="20">
+        <v>8.21917808219178E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B262" s="11">
+        <v>20</v>
+      </c>
+      <c r="C262" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B263" s="11">
+        <v>21</v>
+      </c>
+      <c r="C263" s="20">
+        <v>5.4794520547945206E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B264" s="11">
+        <v>22</v>
+      </c>
+      <c r="C264" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B265" s="4">
+        <v>23</v>
+      </c>
+      <c r="C265" s="20">
+        <v>8.21917808219178E-3</v>
       </c>
     </row>
   </sheetData>
